--- a/src/website/data/ro.xlsx
+++ b/src/website/data/ro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>href</t>
   </si>
@@ -39,19 +39,46 @@
     <t>seo/keywords</t>
   </si>
   <si>
-    <t>test title</t>
-  </si>
-  <si>
-    <t>1, ,2,3, 4, ,5, 6,</t>
+    <t>http://vimeo.com/63186969</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Asd, 123, zxc , qwe, asd, xcv</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
     <t>ru</t>
   </si>
   <si>
     <t>привет</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/98119397</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>qwe, xcv</t>
   </si>
   <si>
     <t>key</t>
@@ -132,14 +159,14 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <b val="true"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -151,13 +178,13 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
-      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +193,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,10 +213,10 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -212,7 +245,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -225,7 +258,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -233,15 +274,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -270,7 +307,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -279,7 +316,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -322,17 +359,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="34.969387755102"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.80612244897959"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.62244897959184"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0918367346939"/>
@@ -340,7 +376,7 @@
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="1" s="3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,26 +418,83 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="B2" s="3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://vimeo.com/63186969" ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -419,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -430,89 +523,89 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/website/data/ro.xlsx
+++ b/src/website/data/ro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="917" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C1">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Arial"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <sz val="10"/>
+          </rPr>
+          <t xml:space="preserve">Через запятую
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>href</t>
   </si>
@@ -42,43 +66,43 @@
     <t>http://vimeo.com/63186969</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Asd, 123, zxc , qwe, asd, xcv</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>привет</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/98119397</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/75500464</t>
+  </si>
+  <si>
+    <t>lego</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>привет</t>
-  </si>
-  <si>
-    <t>http://vimeo.com/98119397</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>zxc</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>qwe, xcv</t>
+    <t>http://vimeo.com/44202270</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/49614994</t>
+  </si>
+  <si>
+    <t>relax</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/60169112</t>
   </si>
   <si>
     <t>key</t>
@@ -124,6 +148,33 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>More...</t>
+  </si>
+  <si>
+    <t>Еще...</t>
+  </si>
+  <si>
+    <t>related_videos</t>
+  </si>
+  <si>
+    <t>Related Videos</t>
+  </si>
+  <si>
+    <t>Похожие видео</t>
+  </si>
+  <si>
+    <t>all_videos</t>
+  </si>
+  <si>
+    <t>All Videos</t>
+  </si>
+  <si>
+    <t>Все видео</t>
   </si>
 </sst>
 </file>
@@ -133,7 +184,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -160,13 +211,6 @@
       <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -245,7 +289,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -262,23 +306,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -359,13 +395,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
+      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5765306122449"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="34.969387755102"/>
@@ -418,83 +454,82 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://vimeo.com/63186969" ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -502,6 +537,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -510,10 +546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
+      <selection activeCell="C10" activeCellId="0" pane="topLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -523,38 +559,38 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
@@ -606,6 +642,39 @@
       </c>
       <c r="B6" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/website/data/ro.xlsx
+++ b/src/website/data/ro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="917" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="237" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>href</t>
   </si>
@@ -103,6 +103,288 @@
   </si>
   <si>
     <t>http://vimeo.com/60169112</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/62022718</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New York, Saxophone, relaxing, nice</t>
+  </si>
+  <si>
+    <t>New York Relaxing Music</t>
+  </si>
+  <si>
+    <t>relaxing music new york</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/82251431</t>
+  </si>
+  <si>
+    <t>Monarch Butterfly</t>
+  </si>
+  <si>
+    <t>Monarch Butterfly, Butterfly, nature, relaxing</t>
+  </si>
+  <si>
+    <t>monarch butterfly</t>
+  </si>
+  <si>
+    <t>relaxing story about monarch butterfly</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/87368710</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Philippines nature, inspirational</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/65596091</t>
+  </si>
+  <si>
+    <t>drone flight test</t>
+  </si>
+  <si>
+    <t>beautiful nature scenes</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/93299826</t>
+  </si>
+  <si>
+    <t>the namibian dream</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/60439719</t>
+  </si>
+  <si>
+    <t>Can't Stop Running by Adam Ben Ezra - feat. Gianni Bardaro</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/13822594</t>
+  </si>
+  <si>
+    <t>Fugue</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/41499247</t>
+  </si>
+  <si>
+    <t>Christian Dior - Secret Garden - Versailles</t>
+  </si>
+  <si>
+    <t>Music, Fasion</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/3272975</t>
+  </si>
+  <si>
+    <t>The Village Pet Store and Charcoal Grill</t>
+  </si>
+  <si>
+    <t>Nature, HD</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/24456787</t>
+  </si>
+  <si>
+    <t>The Arctic Light</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/22439234</t>
+  </si>
+  <si>
+    <t>The Mountain</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/9679622</t>
+  </si>
+  <si>
+    <t>The Sandpit</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/31158028</t>
+  </si>
+  <si>
+    <t>MADE IN ICELAND</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/5595869</t>
+  </si>
+  <si>
+    <t>555 KUBIK | facade projection</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/83795090</t>
+  </si>
+  <si>
+    <t>Frames of Life</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/81407881</t>
+  </si>
+  <si>
+    <t>GRID - monumental kinetic light installation</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/36874836</t>
+  </si>
+  <si>
+    <t>Buenos Aires - Inception Park</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/74521196</t>
+  </si>
+  <si>
+    <t>"Mantis"</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/27786807</t>
+  </si>
+  <si>
+    <t>On Assignment</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/26389153</t>
+  </si>
+  <si>
+    <t>NEW YORK - Time Lapse - Tilt Shift - Scales by Fernando Livschitz</t>
+  </si>
+  <si>
+    <t>City, HD</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/16369165</t>
+  </si>
+  <si>
+    <t>TimeScapes: Rapture</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/40838852</t>
+  </si>
+  <si>
+    <t>istanbul Time Lapse</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/34134308</t>
+  </si>
+  <si>
+    <t>Москва'2011(Moscow/Russia)</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/8951807</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/53226525</t>
+  </si>
+  <si>
+    <t>"Such one day" - Mongolia - Ulaanbaatar part 2</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/87008050</t>
+  </si>
+  <si>
+    <t>January in Japan</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/30581015</t>
+  </si>
+  <si>
+    <t>Midnight Sun | Iceland</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/29186408</t>
+  </si>
+  <si>
+    <t>TOKYO SLO-MODE</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/22428395</t>
+  </si>
+  <si>
+    <t>Experience Human Flight</t>
+  </si>
+  <si>
+    <t>People, HD</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/16339841</t>
+  </si>
+  <si>
+    <t>Postcard from Bali</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/8191217</t>
+  </si>
+  <si>
+    <t>Last Minutes with ODEN</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/29017795</t>
+  </si>
+  <si>
+    <t>Experience Zero Gravity</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/59834826</t>
+  </si>
+  <si>
+    <t>MIA DESIGN 2013 - FILM FASHION</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/71154508</t>
+  </si>
+  <si>
+    <t>Planes</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/899763</t>
+  </si>
+  <si>
+    <t>City, Planes</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/47477451</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/39997231</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/30720348</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/97727886</t>
+  </si>
+  <si>
+    <t>http://vimeo.com/21910508</t>
+  </si>
+  <si>
+    <t>Car</t>
   </si>
   <si>
     <t>key</t>
@@ -184,7 +466,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -205,12 +487,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -264,7 +540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -288,17 +564,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -306,26 +586,31 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -395,73 +680,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C46" activeCellId="0" pane="topLeft" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="34.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.62244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.8571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="1" s="3">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="1" s="3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="2">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -470,62 +737,645 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="3">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4" t="n">
         <v>123</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="4">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="6">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="7">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="8">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="9">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="10">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="11">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="12">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="17">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="11.35" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -559,122 +1409,122 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
